--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>557915.506857072</v>
+        <v>560282.6084620252</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346306</v>
+        <v>3854815.050462391</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7504510.075295723</v>
+        <v>7450242.001724079</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>207.5605110160266</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,13 +670,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>134.2870216850806</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>149.1476881355085</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>22.96189723698673</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>116.3474767345617</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.7480363891204</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>128.7880777047342</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>135.5413370468854</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>174.0354920963825</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>349.7480363891204</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>33.01699698630753</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>372.4089305243864</v>
       </c>
     </row>
     <row r="12">
@@ -1585,7 +1587,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.0363847091458</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>41.60124406456213</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="15">
@@ -1768,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>166.5715133615489</v>
@@ -1786,7 +1788,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>9.431806857525531</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -1895,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.550764568895</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>50.8605182606503</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1910,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.83056154863436</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>33.01699698630676</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>72.20214020325976</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2242,19 +2244,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>64.32559272825135</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>76.74086563202125</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>84.50222035654346</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>256.7115579699417</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>114.7890777533883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>165.6158245190445</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>171.784294541804</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>368.0170707239993</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.5149010044975</v>
+        <v>127.5149010044971</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -2798,19 +2800,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>184.5867352044092</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>110.4854923835496</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21.62708258830185</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3035,13 +3037,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>58.38391263377595</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.3149947016333</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11.61260049965533</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.0560905371679</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>27.80107295221632</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>296.7613521992785</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>279.1953722632063</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.1622329381524</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>36.65301522788418</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3752,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>305.6096491809507</v>
+        <v>316.5413684189589</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>45.60616845650168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.72957861409565</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>365.6774722162032</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>96.80349067878367</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.39345098864447</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1364.156581512957</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="C2" t="n">
-        <v>970.9810800158875</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D2" t="n">
-        <v>585.5399512325553</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E2" t="n">
-        <v>182.9564263490998</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
         <v>406.2953261290054</v>
@@ -4343,37 +4345,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="Y2" t="n">
-        <v>1764.651327224354</v>
+        <v>2199.13495001823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834975</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>963.7331842818107</v>
+        <v>745.9259573278729</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1331.423962334475</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1847.944244925456</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2253.565613641853</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4522,16 +4524,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1819.035227007271</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C5" t="n">
-        <v>1425.859725510202</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D5" t="n">
-        <v>1040.41859672687</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E5" t="n">
-        <v>1040.41859672687</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1819.035227007271</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X5" t="n">
-        <v>1819.035227007271</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.035227007271</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D6" t="n">
         <v>565.9357554231472</v>
@@ -4638,34 +4640,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L6" t="n">
-        <v>160.427952321271</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M6" t="n">
-        <v>745.9259573278732</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
         <v>2341.731461975244</v>
@@ -4686,10 +4688,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>214.6016817369421</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1177.189793764514</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.189793764514</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.189793764514</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E8" t="n">
-        <v>774.606268881058</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F8" t="n">
-        <v>774.606268881058</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>361.4435133690611</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>1566.642398831457</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X8" t="n">
-        <v>1177.189793764514</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y8" t="n">
-        <v>1177.189793764514</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>2021.614212075287</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P9" t="n">
         <v>2365.648505077179</v>
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>432.7540988848759</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C11" t="n">
-        <v>432.7540988848759</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>851.7967205028091</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M11" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2332.298003070809</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>1990.191193774328</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>1619.192158742615</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1229.739553675672</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y11" t="n">
-        <v>833.2488445962728</v>
+        <v>1989.47786818386</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>140.0776713099957</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
-        <v>623.6437572083089</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.141762214911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5233,16 +5235,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1563.175406327452</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C14" t="n">
-        <v>1169.999904830382</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D14" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E14" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>503.6092283712875</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415868</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.42141205333</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O14" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>2323.627046426107</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>1952.628011394395</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>1563.175406327452</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>1563.175406327452</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>669.2258901781879</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>513.6670780373904</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>513.6670780373904</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>345.4130241368359</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>189.9344730983299</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>56.84004773540778</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>756.8371493183852</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C17" t="n">
-        <v>756.8371493183852</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D17" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E17" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F17" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G17" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.869955007588</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1887.117225442187</v>
       </c>
       <c r="V17" t="n">
-        <v>2314.274244207837</v>
+        <v>1545.010416145706</v>
       </c>
       <c r="W17" t="n">
-        <v>1943.275209176124</v>
+        <v>1174.011381113993</v>
       </c>
       <c r="X17" t="n">
-        <v>1553.822604109181</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="Y17" t="n">
-        <v>1157.331895029782</v>
+        <v>784.5587760470498</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.662044805891</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5695,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>770.4846986810929</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>770.4846986810929</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>770.4846986810929</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V19" t="n">
-        <v>504.5053535019172</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W19" t="n">
-        <v>504.5053535019172</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X19" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>909.9804238284923</v>
+        <v>466.1046008912463</v>
       </c>
       <c r="C20" t="n">
-        <v>909.9804238284923</v>
+        <v>466.1046008912463</v>
       </c>
       <c r="D20" t="n">
-        <v>524.5392950451601</v>
+        <v>80.66347210791406</v>
       </c>
       <c r="E20" t="n">
-        <v>524.5392950451601</v>
+        <v>80.66347210791406</v>
       </c>
       <c r="F20" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2882.455782765193</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>2809.524328014425</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V20" t="n">
-        <v>2467.417518717944</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W20" t="n">
-        <v>2096.418483686231</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="X20" t="n">
-        <v>1706.965878619288</v>
+        <v>1263.090055682042</v>
       </c>
       <c r="Y20" t="n">
-        <v>1310.475169539889</v>
+        <v>866.5993466026432</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1586.986833370171</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>1436.332602930263</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>1306.243635551744</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>1169.797144662632</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F21" t="n">
-        <v>1045.365338545763</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G21" t="n">
-        <v>925.3055206176277</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>837.0081042182287</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>787.6208502301403</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J21" t="n">
-        <v>787.6208502301403</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>787.6208502301403</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L21" t="n">
-        <v>1271.186936128453</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M21" t="n">
-        <v>1898.958585755135</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N21" t="n">
-        <v>2554.736556965694</v>
+        <v>1814.990048232788</v>
       </c>
       <c r="O21" t="n">
-        <v>3071.256839556675</v>
+        <v>2331.510330823769</v>
       </c>
       <c r="P21" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>3082.039342103841</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2947.10866500371</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2770.124853202618</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>2560.06170988126</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>2337.521708252327</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>2107.404462385613</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1918.097384735625</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1738.783167811132</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>778.3581315543667</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C22" t="n">
-        <v>608.1530136203559</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D22" t="n">
-        <v>608.1530136203559</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E22" t="n">
-        <v>543.177667430203</v>
+        <v>204.6389048885706</v>
       </c>
       <c r="F22" t="n">
-        <v>385.851732643176</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>217.5976787426216</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.5661502456679</v>
+        <v>871.2439667521655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1660.213721337995</v>
+        <v>1177.734277544119</v>
       </c>
       <c r="C23" t="n">
-        <v>1267.038219840925</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D23" t="n">
-        <v>881.5970910575932</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E23" t="n">
-        <v>479.0135661741377</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2280.292726939257</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>1938.185917642775</v>
       </c>
       <c r="W23" t="n">
-        <v>2846.651781195734</v>
+        <v>1567.186882611063</v>
       </c>
       <c r="X23" t="n">
-        <v>2457.199176128791</v>
+        <v>1177.734277544119</v>
       </c>
       <c r="Y23" t="n">
-        <v>2060.708467049392</v>
+        <v>1177.734277544119</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>202.9460831990288</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2990.007821818515</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>2704.569030060416</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>2438.589684881241</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>2438.589684881241</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>781.4712810076976</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>558.3592198243409</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1197.664015254672</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C26" t="n">
-        <v>804.4885137576025</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0473849742702</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E26" t="n">
-        <v>419.0473849742702</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F26" t="n">
-        <v>419.0473849742702</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L26" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W26" t="n">
-        <v>1994.649470045468</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X26" t="n">
-        <v>1994.649470045468</v>
+        <v>617.3231686171081</v>
       </c>
       <c r="Y26" t="n">
-        <v>1598.158760966069</v>
+        <v>220.8324595377092</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6290,40 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G27" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J27" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L27" t="n">
-        <v>480.1670983834974</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>1029.265125924706</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N27" t="n">
-        <v>1614.763130931308</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O27" t="n">
-        <v>2131.283413522289</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
         <v>2365.648505077179</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="E28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="F28" t="n">
-        <v>1951.406783011508</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.152729110954</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H28" t="n">
-        <v>1627.674178072448</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I28" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1438.683309919575</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C29" t="n">
-        <v>1438.683309919575</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D29" t="n">
-        <v>1053.242181136243</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E29" t="n">
-        <v>650.6586562527873</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7642177827651</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2199.134950018231</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T29" t="n">
-        <v>2199.134950018231</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U29" t="n">
-        <v>2199.134950018231</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V29" t="n">
-        <v>2199.134950018231</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W29" t="n">
-        <v>1828.135914986518</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X29" t="n">
-        <v>1438.683309919575</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="Y29" t="n">
-        <v>1438.683309919575</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6536,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L30" t="n">
         <v>530.8790559998569</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.8329221200289</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C31" t="n">
-        <v>527.8329221200289</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D31" t="n">
-        <v>527.8329221200289</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E31" t="n">
-        <v>505.9873841520472</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F31" t="n">
-        <v>348.6614493650202</v>
+        <v>114.011453636999</v>
       </c>
       <c r="G31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6649,22 +6651,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>713.0409408113302</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>713.0409408113302</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>713.0409408113302</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>713.0409408113302</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y31" t="n">
-        <v>713.0409408113302</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2058.57031924742</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C32" t="n">
-        <v>1665.394817750351</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E32" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y32" t="n">
-        <v>2365.64850507718</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="33">
@@ -6771,16 +6773,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L33" t="n">
         <v>530.8790559998569</v>
@@ -6792,10 +6794,10 @@
         <v>1701.875066013061</v>
       </c>
       <c r="O33" t="n">
-        <v>2131.283413522289</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.201482535628</v>
+        <v>1957.328425202521</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.201482535628</v>
+        <v>1787.123307268511</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.201482535628</v>
+        <v>1631.490194171025</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.201482535628</v>
+        <v>1475.931382030228</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W34" t="n">
-        <v>2082.318103008358</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X34" t="n">
-        <v>1848.237780791341</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y34" t="n">
-        <v>1625.125719607984</v>
+        <v>2142.536443893823</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>371.396020535053</v>
+        <v>885.4648019395609</v>
       </c>
       <c r="C35" t="n">
-        <v>371.396020535053</v>
+        <v>492.2893004424914</v>
       </c>
       <c r="D35" t="n">
-        <v>371.396020535053</v>
+        <v>492.2893004424914</v>
       </c>
       <c r="E35" t="n">
-        <v>371.396020535053</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F35" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G35" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.895775511779</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="V35" t="n">
-        <v>1767.788966215297</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="W35" t="n">
-        <v>1396.789931183585</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="X35" t="n">
-        <v>1007.337326116642</v>
+        <v>1682.450256730357</v>
       </c>
       <c r="Y35" t="n">
-        <v>610.8466170372428</v>
+        <v>1285.959547650958</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.116207068686</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7120,25 +7122,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T37" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U37" t="n">
-        <v>663.3212008849971</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V37" t="n">
-        <v>397.3418557058213</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="W37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1665.394817750351</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C38" t="n">
-        <v>1665.394817750351</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D38" t="n">
-        <v>1279.953688967018</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3701640835627</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>371.4442765563895</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="V38" t="n">
-        <v>2065.889563461747</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="W38" t="n">
-        <v>2065.889563461747</v>
+        <v>1566.642398831456</v>
       </c>
       <c r="X38" t="n">
-        <v>2065.889563461747</v>
+        <v>1177.189793764513</v>
       </c>
       <c r="Y38" t="n">
-        <v>2065.889563461747</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7296,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>778.5548747090853</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>622.9217616116</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>467.3629494708025</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>467.3629494708025</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7354,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568.663050286385</v>
+        <v>1579.705190930837</v>
       </c>
       <c r="C41" t="n">
-        <v>1175.487548789315</v>
+        <v>1186.529689433768</v>
       </c>
       <c r="D41" t="n">
-        <v>1175.487548789315</v>
+        <v>1186.529689433768</v>
       </c>
       <c r="E41" t="n">
-        <v>772.9040239058595</v>
+        <v>783.9461645503122</v>
       </c>
       <c r="F41" t="n">
-        <v>356.0095854358373</v>
+        <v>367.05172608029</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
@@ -7415,46 +7417,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M41" t="n">
-        <v>1044.265390756362</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N41" t="n">
-        <v>1572.076674393824</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7484,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N42" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
         <v>2365.648505077179</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>256.852502463113</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>256.852502463113</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>256.852502463113</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>256.852502463113</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>256.852502463113</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>256.852502463113</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7594,25 +7596,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>745.9439088256454</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>745.9439088256454</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>479.9645636464696</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>479.9645636464696</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X43" t="n">
-        <v>479.9645636464696</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>256.852502463113</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1255.969440891813</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="C44" t="n">
-        <v>1255.969440891813</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D44" t="n">
-        <v>1255.969440891813</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E44" t="n">
-        <v>853.3859160083578</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F44" t="n">
-        <v>442.9463642536647</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>32.50681249897168</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L44" t="n">
-        <v>434.7786171737463</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M44" t="n">
-        <v>837.050421848521</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N44" t="n">
-        <v>1239.322226523296</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2338.648930719507</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2115.148328278924</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>1859.395598713522</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>1517.288789417041</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.340624948584</v>
+        <v>1146.289754385328</v>
       </c>
       <c r="X44" t="n">
-        <v>1255.969440891813</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="Y44" t="n">
-        <v>1255.969440891813</v>
+        <v>756.8371493183852</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.2881162149148</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>130.2881162149148</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>130.2881162149148</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>352.2459585611981</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>754.5177632359728</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.789567910747</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N45" t="n">
-        <v>1156.789567910747</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>1559.061372585522</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.340624948584</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1490.409947848453</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1313.426136047362</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1103.362992726003</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>880.8229910970704</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>650.7057452303573</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>461.3986675803689</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>282.0844506558761</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1422.524541131134</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>1422.524541131134</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>1422.524541131134</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>1266.965728990336</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>1109.639794203309</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>941.3857403027546</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>785.9071892642486</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>1422.524541131134</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>1422.524541131134</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.524541131134</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V46" t="n">
-        <v>1422.524541131134</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W46" t="n">
-        <v>1422.524541131134</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X46" t="n">
-        <v>1422.524541131134</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>1422.524541131134</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7991,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>194.041828753471</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>204.2031950097791</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,7 +8218,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8228,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P5" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N6" t="n">
-        <v>553.266865265316</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,13 +8455,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M8" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,22 +8534,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.196945759487</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8690,10 +8692,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822908</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8705,7 +8707,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8769,25 +8771,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>183.2986537257091</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8927,10 +8929,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1534811140714</v>
+        <v>251.5450406822908</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -9006,22 +9008,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>92.83741255226374</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9167,7 +9169,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>377.8426560230614</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9410,7 +9412,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>458.1505014870037</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -9486,16 +9488,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.1334109295184</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>403.0555909137002</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9875,10 +9877,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9890,10 +9892,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0315943131586</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10112,25 +10114,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10197,16 +10199,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>235.8239269133925</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10349,7 +10351,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10361,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>277.8952841518213</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10434,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
-        <v>526.4333644537654</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,7 +10588,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10598,10 +10600,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628806</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10665,25 +10667,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O36" t="n">
-        <v>385.1581020577837</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10823,25 +10825,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>470.4637632346373</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>263.5850982253572</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11063,22 +11065,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>412.734320667415</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>454.1919739732231</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11142,19 +11144,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>311.2540453751037</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>539.4814115910547</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>496.3955030940643</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>498.722278286458</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>154.0321045799837</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>181.6832354660721</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>278.4384724002414</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22726,7 +22728,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22762,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>240.3576544903973</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>296.3780173507603</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -22841,16 +22843,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>17.54100829227502</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>18.46188697250406</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -22963,7 +22965,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23008,7 +23010,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>146.8067278327917</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23081,13 +23083,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>17.54100829227502</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23312,19 +23314,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>220.1782052834398</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>20.11687146421849</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23552,16 +23554,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>297.0844971389546</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="15">
@@ -23656,13 +23658,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.64268061463354</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23744,7 +23746,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,13 +23785,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0.714831847282511</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>287.8252229428665</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>146.9573614306418</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23978,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>379.7084970990152</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>180.9930620664876</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>89.67763129113816</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24193,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>144.1400749395018</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24260,19 +24262,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>168.6929819132039</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>110.5774867114537</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24415,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>118.5727835600599</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.12369447580221</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>224.7055037124789</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24455,7 +24457,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>41.01405723287752</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24491,22 +24493,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>28.23777443465931</v>
+        <v>28.23777443465964</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>224.4443927524676</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>275.0725866327242</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24844,19 +24846,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>132.3761414310877</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>100.5400146614481</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24889,16 +24891,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24962,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>280.3018285697408</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24983,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.04094380275501</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>144.1400749395015</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25135,10 +25137,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>159.433707717115</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>370.7566166824046</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25211,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>87.89226682802015</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25360,7 +25362,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>41.92438900423832</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>113.3304297253986</v>
       </c>
     </row>
     <row r="39">
@@ -25549,25 +25551,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>36.4092804233965</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>164.1349077513919</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
@@ -25609,13 +25611,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>103.4214787759261</v>
+        <v>92.48975953791796</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25691,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,13 +25803,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>108.3175970716193</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25868,19 +25870,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>6.390337848175932</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>2.695971719730778</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25913,22 +25915,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>138.1188408942643</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>19.8806068000705</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>38.27853530143747</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>70.37003012064841</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26071,19 +26073,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644310.541985679</v>
+        <v>644310.5419856786</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644310.541985679</v>
+        <v>644310.5419856785</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644310.541985679</v>
+        <v>644310.5419856787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644310.5419856787</v>
+        <v>644310.5419856785</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725897.3489748685</v>
+        <v>644310.5419856785</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725897.3489748685</v>
+        <v>644310.5419856786</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644310.5419856787</v>
+        <v>644310.5419856791</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644310.5419856788</v>
+        <v>644310.5419856786</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644310.5419856791</v>
+        <v>644310.5419856788</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644310.5419856785</v>
+        <v>644310.5419856788</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644310.5419856786</v>
+        <v>644310.5419856788</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519265.4357962169</v>
+        <v>644310.541985679</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="C2" t="n">
         <v>191980.2613012998</v>
       </c>
       <c r="D2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="E2" t="n">
         <v>191980.2613012999</v>
@@ -26326,34 +26328,34 @@
         <v>191980.2613012998</v>
       </c>
       <c r="G2" t="n">
+        <v>191980.2613012999</v>
+      </c>
+      <c r="H2" t="n">
         <v>191980.2613012998</v>
       </c>
-      <c r="H2" t="n">
-        <v>216278.5473416247</v>
-      </c>
       <c r="I2" t="n">
-        <v>216278.5473416247</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="J2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="K2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="L2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="M2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="N2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="O2" t="n">
         <v>191980.2613012998</v>
       </c>
       <c r="P2" t="n">
-        <v>154739.1696314552</v>
+        <v>191980.2613012999</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="C4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="E4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="G4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="H4" t="n">
-        <v>52165.99257608331</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="I4" t="n">
-        <v>52165.99257608331</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="J4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="K4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="L4" t="n">
         <v>46245.16569024821</v>
@@ -26454,10 +26456,10 @@
         <v>46245.16569024821</v>
       </c>
       <c r="O4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="P4" t="n">
         <v>46245.16569024821</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37170.53151849088</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122046.1676578664</v>
+        <v>-122046.1676578663</v>
       </c>
       <c r="C6" t="n">
-        <v>76149.63833387845</v>
+        <v>76149.63833387854</v>
       </c>
       <c r="D6" t="n">
-        <v>76149.63833387851</v>
+        <v>76149.63833387857</v>
       </c>
       <c r="E6" t="n">
-        <v>109777.2383338785</v>
+        <v>109777.2383338786</v>
       </c>
       <c r="F6" t="n">
         <v>109777.2383338785</v>
       </c>
       <c r="G6" t="n">
+        <v>109777.2383338786</v>
+      </c>
+      <c r="H6" t="n">
         <v>109777.2383338785</v>
       </c>
-      <c r="H6" t="n">
-        <v>66966.58550300953</v>
-      </c>
       <c r="I6" t="n">
-        <v>116902.0177104136</v>
+        <v>109777.2383338785</v>
       </c>
       <c r="J6" t="n">
-        <v>3462.082715366589</v>
+        <v>-44962.19603172476</v>
       </c>
       <c r="K6" t="n">
-        <v>109777.2383338785</v>
+        <v>109777.2383338786</v>
       </c>
       <c r="L6" t="n">
-        <v>109777.2383338785</v>
+        <v>109777.2383338786</v>
       </c>
       <c r="M6" t="n">
         <v>109777.2383338785</v>
@@ -26561,7 +26563,7 @@
         <v>109777.2383338785</v>
       </c>
       <c r="P6" t="n">
-        <v>92863.46061374585</v>
+        <v>109777.2383338786</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34711,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>44.47799132937455</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>113.2150418538651</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34948,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N6" t="n">
-        <v>467.8947524111493</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M8" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705981</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095179912</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35425,7 +35427,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>93.7017183923758</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>460.9053113835797</v>
+        <v>98.29687095179912</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>292.4705431688948</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36130,7 +36132,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>309.0320101492196</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.0500461102038</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>310.6684688643883</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36610,10 +36612,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>554.6444722638468</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>148.7405620940779</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>127.5938369108961</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
-        <v>433.7458055648765</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37318,10 +37320,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>314.3065239219554</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O36" t="n">
-        <v>292.4705431688948</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>327.4053600553999</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711906</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,22 +37785,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>263.1704832433186</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>303.8905267322979</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>168.1956421958663</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>389.9175741669583</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>406.3351562371461</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>406.3351562371461</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>66.94873976066906</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560282.6084620252</v>
+        <v>554574.4526541387</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462391</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7450242.001724079</v>
+        <v>7450242.001724083</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>207.5605110160266</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -679,7 +679,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>198.9982805033191</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355085</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.314994701633</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>353.3280302552043</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.7480363891204</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -980,7 +980,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047342</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>135.5413370468854</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>147.8279795613426</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>79.48420598774132</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.7480363891204</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>57.80432461496314</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
@@ -1390,7 +1390,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.4089305243864</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.87146067696475</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>289.1043232126777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>220.550764568895</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -1906,10 +1906,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>244.7389919603133</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2067,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>33.01699698630676</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>205.0301681493351</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>144.7467681673239</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>84.50222035654346</v>
+        <v>46.16686303095418</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>171.784294541804</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>146.2106055050222</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.5149010044971</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -2848,19 +2848,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>110.4854923835496</v>
+        <v>317.2981208731883</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -3034,16 +3034,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>58.38391263377595</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>67.83872679650106</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>11.61260049965533</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>27.80107295221632</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>119.1684968204212</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>145.7406737689587</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>98.04181867346701</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>279.1953722632063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>21.27104444158489</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>36.65301522788418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>370.7033115322619</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>316.5413684189589</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>38.44859076233502</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>160.4572772607319</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.72957861409565</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>146.0154670505622</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2199.13495001823</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="C2" t="n">
-        <v>1989.47786818386</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="D2" t="n">
-        <v>1604.036739400527</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.453214517072</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F2" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2199.13495001823</v>
+        <v>1998.126585873464</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.13495001823</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="V2" t="n">
-        <v>2199.13495001823</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="W2" t="n">
-        <v>2199.13495001823</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="X2" t="n">
-        <v>2199.13495001823</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="Y2" t="n">
-        <v>2199.13495001823</v>
+        <v>1742.373856308063</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M3" t="n">
-        <v>745.9259573278729</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N3" t="n">
-        <v>1331.423962334475</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.944244925456</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2253.565613641853</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154359</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154359</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154359</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154359</v>
+        <v>208.2372071739002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825.9296003819453</v>
+        <v>955.7098427788578</v>
       </c>
       <c r="C5" t="n">
-        <v>432.7540988848759</v>
+        <v>955.7098427788578</v>
       </c>
       <c r="D5" t="n">
-        <v>47.31297010154359</v>
+        <v>955.7098427788578</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154359</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154359</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
         <v>406.2953261290054</v>
@@ -4576,43 +4576,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W5" t="n">
-        <v>2012.367660239684</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.915055172741</v>
+        <v>1752.695297569654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1226.424346093342</v>
+        <v>1356.204588490255</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
         <v>565.9357554231472</v>
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4688,10 +4688,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>540.4399127684381</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>370.2347948344274</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>214.6016817369421</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>825.9296003819453</v>
+        <v>853.6512271106099</v>
       </c>
       <c r="C8" t="n">
-        <v>432.7540988848759</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>2012.367660239684</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.915055172741</v>
+        <v>1330.429012945303</v>
       </c>
       <c r="Y8" t="n">
-        <v>1226.424346093342</v>
+        <v>933.9383038659041</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068685</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>2021.614212075287</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
         <v>2341.731461975244</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4992,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1989.47786818386</v>
+        <v>981.2840996363659</v>
       </c>
       <c r="C11" t="n">
-        <v>1989.47786818386</v>
+        <v>981.2840996363659</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.036739400527</v>
+        <v>922.895892954585</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.453214517072</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y11" t="n">
-        <v>1989.47786818386</v>
+        <v>981.2840996363659</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1673.129190464088</v>
+        <v>1710.920546621373</v>
       </c>
       <c r="C14" t="n">
-        <v>1279.953688967018</v>
+        <v>1710.920546621373</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.953688967018</v>
+        <v>1325.47941783804</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1710.920546621373</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1710.920546621373</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>1710.920546621373</v>
       </c>
       <c r="Y14" t="n">
-        <v>2073.623936175485</v>
+        <v>1710.920546621373</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5469,19 +5469,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5587760470498</v>
+        <v>1316.071394451654</v>
       </c>
       <c r="C17" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="D17" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="E17" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F17" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>318.7636682303378</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>864.7645682749184</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1392.57585191238</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.615452804709</v>
+        <v>1885.656118784443</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936231</v>
+        <v>2233.843610915965</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2142.869955007588</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U17" t="n">
-        <v>1887.117225442187</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V17" t="n">
-        <v>1545.010416145706</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W17" t="n">
-        <v>1174.011381113993</v>
+        <v>1316.071394451654</v>
       </c>
       <c r="X17" t="n">
-        <v>784.5587760470498</v>
+        <v>1316.071394451654</v>
       </c>
       <c r="Y17" t="n">
-        <v>784.5587760470498</v>
+        <v>1316.071394451654</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O18" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>663.3212008849971</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>397.3418557058213</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>466.1046008912463</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="C20" t="n">
-        <v>466.1046008912463</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D20" t="n">
-        <v>80.66347210791406</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E20" t="n">
-        <v>80.66347210791406</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1086.634161864653</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N20" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>1992.033770069408</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.648505077179</v>
+        <v>1736.281040504006</v>
       </c>
       <c r="V20" t="n">
-        <v>2023.541695780698</v>
+        <v>1736.281040504006</v>
       </c>
       <c r="W20" t="n">
-        <v>1652.542660748985</v>
+        <v>1736.281040504006</v>
       </c>
       <c r="X20" t="n">
-        <v>1263.090055682042</v>
+        <v>1736.281040504006</v>
       </c>
       <c r="Y20" t="n">
-        <v>866.5993466026432</v>
+        <v>1339.790331424607</v>
       </c>
     </row>
     <row r="21">
@@ -5816,40 +5816,40 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171667</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>643.9940382195842</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1229.492043226186</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.990048232788</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.510330823769</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>204.6389048885706</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>871.2439667521655</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1177.734277544119</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="C23" t="n">
-        <v>784.5587760470498</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="D23" t="n">
-        <v>784.5587760470498</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E23" t="n">
-        <v>784.5587760470498</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F23" t="n">
         <v>784.5587760470498</v>
@@ -5983,58 +5983,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U23" t="n">
-        <v>2280.292726939257</v>
+        <v>1929.001152596886</v>
       </c>
       <c r="V23" t="n">
-        <v>1938.185917642775</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="W23" t="n">
-        <v>1567.186882611063</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="X23" t="n">
-        <v>1177.734277544119</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="Y23" t="n">
-        <v>1177.734277544119</v>
+        <v>1586.894343300404</v>
       </c>
     </row>
     <row r="24">
@@ -6053,40 +6053,40 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171667</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154358</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.1512011330396</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>202.9460831990288</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6177,22 +6177,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>781.4712810076976</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>558.3592198243409</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C26" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L26" t="n">
-        <v>318.7636682303378</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M26" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N26" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>1975.634347577647</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U26" t="n">
-        <v>1719.881618012245</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V26" t="n">
-        <v>1377.774808715764</v>
+        <v>2051.447469710128</v>
       </c>
       <c r="W26" t="n">
-        <v>1006.775773684051</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X26" t="n">
-        <v>617.3231686171081</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y26" t="n">
-        <v>220.8324595377092</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154358</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6414,22 +6414,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V28" t="n">
-        <v>663.3212008849971</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>895.1742662259204</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="C29" t="n">
-        <v>895.1742662259204</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D29" t="n">
-        <v>509.7331374425881</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E29" t="n">
-        <v>509.7331374425881</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F29" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G29" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L29" t="n">
-        <v>318.7636682303378</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M29" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N29" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>1975.634347577647</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>1719.881618012245</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V29" t="n">
-        <v>1377.774808715764</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W29" t="n">
-        <v>1006.775773684051</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X29" t="n">
-        <v>895.1742662259204</v>
+        <v>1246.139246434297</v>
       </c>
       <c r="Y29" t="n">
-        <v>895.1742662259204</v>
+        <v>849.6485373548981</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565973</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6651,22 +6651,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U31" t="n">
-        <v>663.3212008849971</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V31" t="n">
-        <v>397.3418557058213</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>825.9296003819453</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C32" t="n">
-        <v>432.7540988848759</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
         <v>540.6332618200724</v>
@@ -6718,34 +6718,34 @@
         <v>2054.485046394444</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>1937.641433863168</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U32" t="n">
-        <v>1681.888704297767</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.915055172741</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.915055172741</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.915055172741</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="Y32" t="n">
-        <v>1226.424346093342</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1957.328425202521</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>1787.123307268511</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>1631.490194171025</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>1475.931382030228</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.648505077179</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.648505077179</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.648505077179</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.648505077179</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="W34" t="n">
-        <v>2365.648505077179</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>2365.648505077179</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>2142.536443893823</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>885.4648019395609</v>
+        <v>955.7098427788578</v>
       </c>
       <c r="C35" t="n">
-        <v>492.2893004424914</v>
+        <v>955.7098427788578</v>
       </c>
       <c r="D35" t="n">
-        <v>492.2893004424914</v>
+        <v>570.2687139955256</v>
       </c>
       <c r="E35" t="n">
-        <v>464.2074085715658</v>
+        <v>167.6851891120701</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154359</v>
+        <v>167.6851891120701</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>47.31297010154359</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>540.6332618200724</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M35" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N35" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T35" t="n">
-        <v>2327.655591362701</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U35" t="n">
-        <v>2071.9028617973</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V35" t="n">
-        <v>2071.9028617973</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.9028617973</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X35" t="n">
-        <v>1682.450256730357</v>
+        <v>1752.695297569654</v>
       </c>
       <c r="Y35" t="n">
-        <v>1285.959547650958</v>
+        <v>1356.204588490255</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154359</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>272.5108437565968</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7122,25 +7122,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>460.5051170675463</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V37" t="n">
-        <v>194.5257718883706</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>895.1742662259204</v>
+        <v>1297.757791109376</v>
       </c>
       <c r="C38" t="n">
-        <v>895.1742662259204</v>
+        <v>1297.757791109376</v>
       </c>
       <c r="D38" t="n">
-        <v>509.7331374425881</v>
+        <v>912.3166623260436</v>
       </c>
       <c r="E38" t="n">
         <v>509.7331374425881</v>
@@ -7171,55 +7171,55 @@
         <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>371.4442765563895</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>864.7645682749184</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>864.7645682749184</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.57585191238</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>1937.641433863168</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U38" t="n">
-        <v>1937.641433863168</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V38" t="n">
-        <v>1937.641433863168</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W38" t="n">
-        <v>1566.642398831456</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X38" t="n">
-        <v>1177.189793764513</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="Y38" t="n">
-        <v>895.1742662259204</v>
+        <v>1396.789931183585</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K39" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L39" t="n">
-        <v>963.7331842818107</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M39" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
         <v>1725.662044805891</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>224.3576857186895</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>68.79887357789198</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7356,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>787.8357555707396</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>787.8357555707396</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>787.8357555707396</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>787.8357555707396</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W40" t="n">
-        <v>504.5053535019172</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X40" t="n">
-        <v>270.4250312849002</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1579.705190930837</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.529689433768</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D41" t="n">
-        <v>1186.529689433768</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E41" t="n">
-        <v>783.9461645503122</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F41" t="n">
-        <v>367.05172608029</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
         <v>191.9627430103717</v>
@@ -7417,46 +7417,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1096.945999082414</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1624.757282719876</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O41" t="n">
-        <v>2064.796883612205</v>
+        <v>2030.305891693271</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.648505077179</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.648505077179</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X41" t="n">
-        <v>1976.195900010236</v>
+        <v>745.8438099615802</v>
       </c>
       <c r="Y41" t="n">
-        <v>1579.705190930837</v>
+        <v>745.8438099615802</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L42" t="n">
-        <v>272.5108437565968</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631988</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7535,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6228038740554</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>756.8371493183852</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="C44" t="n">
-        <v>756.8371493183852</v>
+        <v>1748.972401139527</v>
       </c>
       <c r="D44" t="n">
-        <v>371.396020535053</v>
+        <v>1363.531272356195</v>
       </c>
       <c r="E44" t="n">
-        <v>371.396020535053</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F44" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G44" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2338.648930719507</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>2115.148328278924</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U44" t="n">
-        <v>1859.395598713522</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V44" t="n">
-        <v>1517.288789417041</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W44" t="n">
-        <v>1146.289754385328</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X44" t="n">
-        <v>756.8371493183852</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="Y44" t="n">
-        <v>756.8371493183852</v>
+        <v>2142.147902636597</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7836,22 +7836,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6228038740554</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>194.041828753471</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.2031950097791</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8224,19 +8224,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>647.0581217063165</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>263.585098225357</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8534,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>186.0888404416877</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>440.196945759487</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>251.5450406822908</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8704,10 +8704,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>251.5450406822908</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8941,10 +8941,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9166,16 +9166,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>277.6349551468923</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P18" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9403,16 +9403,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>458.1505014870037</v>
+        <v>647.0581217063165</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>121.5663691156888</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9640,10 +9640,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9652,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9719,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9880,7 +9880,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>427.4407941030111</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10117,7 +10117,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>427.4407941030111</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10196,19 +10196,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084876</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10366,7 +10366,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>277.8952841518213</v>
+        <v>277.8952841518222</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186067</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10588,13 +10588,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>612.8252961895594</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10603,10 +10603,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>464.6079711628806</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10667,16 +10667,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10825,25 +10825,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>470.4637632346373</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,22 +10901,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>349.2438226594818</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>263.5850982253572</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11065,19 +11065,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>454.1919739732231</v>
+        <v>489.0313597499241</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11144,13 +11144,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234615</v>
+        <v>179.0738312465426</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11299,7 +11299,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>311.2540453751037</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11311,7 +11311,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11384,7 +11384,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069881</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -22549,10 +22549,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>181.6832354660721</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,10 +22600,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>22.26731591285838</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275524</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>45.2296593794166</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22846,7 +22846,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>17.54100829227502</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>18.46188697250406</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -22965,7 +22965,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>85.5338817521056</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>317.0055922665416</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23035,7 +23035,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23071,19 +23071,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>17.54100829227502</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23263,13 +23263,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>323.7823928805358</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.11687146421849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>85.99884522588803</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>329.814280526552</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.4214787759271</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,7 +23734,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.714831847282511</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>122.5500527210821</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23943,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>379.7084970990152</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>16.23542826684243</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>118.5727835600601</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24208,16 +24208,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>168.6929819132039</v>
+        <v>207.0283392387932</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>224.7055037124789</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24451,13 +24451,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>192.4751356984946</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24612,19 +24612,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>28.23777443465964</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24691,16 +24691,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>275.0725866327242</v>
+        <v>68.25995814308538</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>100.5400146614481</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24891,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>280.3018285697408</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>324.6870751921038</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1400749395015</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25125,25 +25125,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>134.7564242791755</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>370.7566166824046</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>289.8626311364557</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25362,7 +25362,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>134.7564242791754</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>298.4479795808159</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>113.3304297253986</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>134.4816309975719</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>164.1349077513919</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>25.78648672202098</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>92.48975953791796</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>130.0544759923357</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25867,19 +25867,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>238.100412373889</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>138.1188408942643</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -26025,16 +26025,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>22.48759970410848</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26076,16 +26076,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>644310.5419856787</v>
+        <v>644310.5419856788</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644310.5419856786</v>
+        <v>644310.5419856791</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644310.5419856785</v>
+        <v>644310.5419856791</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644310.5419856787</v>
+        <v>644310.5419856791</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644310.5419856785</v>
+        <v>644310.541985679</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644310.5419856791</v>
+        <v>644310.541985679</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644310.5419856785</v>
+        <v>644310.5419856787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>644310.5419856786</v>
+        <v>644310.5419856791</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644310.5419856787</v>
+        <v>644310.5419856791</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644310.5419856786</v>
+        <v>644310.5419856787</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644310.5419856788</v>
+        <v>644310.5419856791</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644310.5419856788</v>
+        <v>644310.5419856787</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644310.5419856788</v>
+        <v>644310.5419856785</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644310.541985679</v>
+        <v>644310.5419856785</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>191980.2613012998</v>
       </c>
       <c r="D2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="E2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="F2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="G2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="H2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="I2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="J2" t="n">
         <v>191980.2613012999</v>
@@ -26349,7 +26349,7 @@
         <v>191980.2613012999</v>
       </c>
       <c r="N2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="O2" t="n">
         <v>191980.2613012998</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="C4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="E4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="G4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="H4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="I4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="J4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="K4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="L4" t="n">
         <v>46245.16569024821</v>
@@ -26456,7 +26456,7 @@
         <v>46245.16569024821</v>
       </c>
       <c r="O4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="P4" t="n">
         <v>46245.16569024821</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122046.1676578663</v>
+        <v>-122720.1937840865</v>
       </c>
       <c r="C6" t="n">
-        <v>76149.63833387854</v>
+        <v>75475.61220765847</v>
       </c>
       <c r="D6" t="n">
-        <v>76149.63833387857</v>
+        <v>75475.61220765847</v>
       </c>
       <c r="E6" t="n">
-        <v>109777.2383338786</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="F6" t="n">
-        <v>109777.2383338785</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="G6" t="n">
-        <v>109777.2383338786</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="H6" t="n">
-        <v>109777.2383338785</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="I6" t="n">
-        <v>109777.2383338785</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="J6" t="n">
-        <v>-44962.19603172476</v>
+        <v>-45636.22215794491</v>
       </c>
       <c r="K6" t="n">
-        <v>109777.2383338786</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="L6" t="n">
-        <v>109777.2383338786</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="M6" t="n">
-        <v>109777.2383338785</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="N6" t="n">
-        <v>109777.2383338785</v>
+        <v>109103.2122076585</v>
       </c>
       <c r="O6" t="n">
-        <v>109777.2383338785</v>
+        <v>109103.2122076584</v>
       </c>
       <c r="P6" t="n">
-        <v>109777.2383338786</v>
+        <v>109103.2122076585</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>44.47799132937455</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.2150418538651</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>347.5093868705981</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>98.29687095179912</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35424,10 +35424,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>98.29687095179912</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35661,10 +35661,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>309.0320101492196</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>34.48300429637414</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36372,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>274.1926243725193</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>274.1926243725193</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515694</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>127.5938369108961</v>
+        <v>127.593836910897</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37323,10 +37323,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>314.3065239219554</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>327.4053600553999</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>259.1834758025636</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>178.2129853711906</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37785,19 +37785,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>303.8905267322979</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692948</v>
+        <v>93.70171839237591</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>168.1956421958663</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38031,7 +38031,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576762</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
